--- a/m12i.xlsx
+++ b/m12i.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\wkzq\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFC87AD-C7FD-4D9D-9A49-CE1E94DD987E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="工业增加值" sheetId="1" r:id="rId1"/>
     <sheet name="M1" sheetId="2" r:id="rId2"/>
+    <sheet name="M2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>准确度（%）</t>
   </si>
@@ -56,12 +51,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -69,24 +64,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,34 +104,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -194,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,27 +193,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,24 +227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,21 +402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,116 +417,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>4.1100000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>56.000000000000007</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="C9">
-        <v>3.68</v>
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,96 +526,204 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="C4">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>66</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B6">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>55.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>82</v>
+      </c>
+      <c r="C6">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>1.52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>